--- a/address.xlsx
+++ b/address.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9805"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="5">
   <si>
     <t>address</t>
   </si>
@@ -43,127 +43,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>bc1qd8p0pvl6a54jprqym0xtmltdd3ucfgvh84e66q</t>
-  </si>
-  <si>
-    <t>http://64.137.75.71:5991</t>
-  </si>
-  <si>
-    <t>ptldrdsk</t>
-  </si>
-  <si>
-    <t>bc1qmhzc6p8rtw9ehudg95pr5r797vnu9yftyk0m3t</t>
-  </si>
-  <si>
-    <t>http://64.137.75.175:6095</t>
-  </si>
-  <si>
-    <t>bc1q3l85cmlf6qsc3wnqy39p4wdwxf2rrsrmvdysw9</t>
-  </si>
-  <si>
-    <t>http://45.114.15.18:5999</t>
-  </si>
-  <si>
-    <t>bc1qt6v3kacefcvte5gdluum27u38l9z62d26x3uss</t>
-  </si>
-  <si>
-    <t>http://45.114.15.176:6157</t>
-  </si>
-  <si>
-    <t>bc1qwzy97jrll3h28k5e7g6q65zyqfdxx769q2853l</t>
-  </si>
-  <si>
-    <t>http://45.114.15.125:6106</t>
-  </si>
-  <si>
-    <t>bc1qhxhjejg3u6lt6tep6vqdlw938uac46lcdnp6r0</t>
-  </si>
-  <si>
-    <t>http://168.199.166.21:6553</t>
-  </si>
-  <si>
-    <t>bc1q8nkgux8cgr2yxft4fjy9em3q63y3ynj6cws6a5</t>
-  </si>
-  <si>
-    <t>http://168.199.166.187:6719</t>
-  </si>
-  <si>
-    <t>bc1qt9f93k6zr775lhrw6my2fqtp9tp49v5t7mdqzy</t>
-  </si>
-  <si>
-    <t>http://23.109.232.95:6015</t>
-  </si>
-  <si>
-    <t>bc1qz9nyqjezrs5eujv665ylza2gwt8ysttce6z5l8</t>
-  </si>
-  <si>
-    <t>http://147.136.85.153:6069</t>
-  </si>
-  <si>
-    <t>bc1qscl9uxu30t0h76p565h46844dc6qj8dmn2ze8u</t>
-  </si>
-  <si>
-    <t>http://192.95.91.138:5765</t>
-  </si>
-  <si>
-    <t>bc1qjl75vm6q63445aj5d57kxqf3lm69shk6ct6weq</t>
-  </si>
-  <si>
-    <t>http://147.136.85.36:5952</t>
-  </si>
-  <si>
-    <t>bc1qtde3tp5nqxjz2pcvmtdyq07ejq8005028v8njj</t>
-  </si>
-  <si>
-    <t>http://104.222.187.33:6157</t>
-  </si>
-  <si>
-    <t>bc1qt3skjfrzv0rjc586s93w7d2tdp7jlwj7usj7tn</t>
-  </si>
-  <si>
-    <t>http://23.109.219.98:6322</t>
-  </si>
-  <si>
-    <t>bc1qejeuf30yppv3ep48nzdwmjamaklvpnm466tlmg</t>
-  </si>
-  <si>
-    <t>http://23.109.219.201:6425</t>
-  </si>
-  <si>
-    <t>bc1qkvw57rxk0a77ndvtjxacwh8gcw4txy204yzkyu</t>
-  </si>
-  <si>
-    <t>http://23.109.219.113:6337</t>
-  </si>
-  <si>
-    <t>bc1q347n4an36kyys69sex7sqy64q8h79vj8xkpzey</t>
-  </si>
-  <si>
-    <t>http://104.238.8.10:5868</t>
-  </si>
-  <si>
-    <t>bc1qxqcem60sz88hfctyr9qyvfj0vl2yw8eqwjfxg2</t>
-  </si>
-  <si>
-    <t>http://104.238.8.129:5987</t>
-  </si>
-  <si>
-    <t>bc1qf0t9pq3f4ns9lq8unhr5mmkt8gurrn9yfq7s3s</t>
-  </si>
-  <si>
-    <t>http://104.238.8.67:5925</t>
-  </si>
-  <si>
-    <t>bc1qc6tcue77x8dln945mw97f9a6nfxdrdx75y69k8</t>
-  </si>
-  <si>
-    <t>http://104.222.187.69:6193</t>
-  </si>
-  <si>
-    <t>bc1q4kdvsq3q55fasuqtl6txgml0cfck8pvn5arvuy</t>
-  </si>
-  <si>
-    <t>http://23.109.219.224:6448</t>
+    <t>HTTP</t>
   </si>
 </sst>
 </file>
@@ -804,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,12 +692,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1038,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset8_Accent1 1" pivot="0" count="7" xr9:uid="{7AB63848-6F05-473F-9DDD-83B47BC0D185}">
+    <tableStyle name="TableStylePreset8_Accent1 1" pivot="0" count="7" xr9:uid="{FF5EEB30-81E5-4812-A07B-70F696136078}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1453,10 +1327,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="43.925" customWidth="1"/>
     <col min="2" max="2" width="29.3583333333333" customWidth="1"/>
@@ -1479,307 +1353,267 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://64.137.75.71:5991" tooltip="http://64.137.75.71:5991"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://64.137.75.175:6095" tooltip="http://64.137.75.175:6095"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://45.114.15.18:5999" tooltip="http://45.114.15.18:5999"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://45.114.15.176:6157" tooltip="http://45.114.15.176:6157"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://45.114.15.125:6106" tooltip="http://45.114.15.125:6106"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://168.199.166.21:6553" tooltip="http://168.199.166.21:6553"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://168.199.166.187:6719" tooltip="http://168.199.166.187:6719"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://23.109.232.95:6015" tooltip="http://23.109.232.95:6015"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://147.136.85.153:6069" tooltip="http://147.136.85.153:6069"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://192.95.91.138:5765" tooltip="http://192.95.91.138:5765"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://147.136.85.36:5952" tooltip="http://147.136.85.36:5952"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://104.222.187.33:6157" tooltip="http://104.222.187.33:6157"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://23.109.219.98:6322" tooltip="http://23.109.219.98:6322"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://23.109.219.201:6425" tooltip="http://23.109.219.201:6425"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://23.109.219.113:6337" tooltip="http://23.109.219.113:6337"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://104.238.8.10:5868" tooltip="http://104.238.8.10:5868"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://104.238.8.129:5987" tooltip="http://104.238.8.129:5987"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://104.238.8.67:5925" tooltip="http://104.238.8.67:5925"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://104.222.187.69:6193" tooltip="http://104.222.187.69:6193"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://23.109.219.224:6448" tooltip="http://23.109.219.224:6448"/>
+    <hyperlink ref="B2" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B3" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B4" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B5" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B6" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B7" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B8" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B9" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B10" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B11" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B12" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B13" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B14" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B15" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B16" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B17" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B18" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B19" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B20" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
+    <hyperlink ref="B21" r:id="rId1" display="HTTP" tooltip="http://64.137.75.71:5991"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1796,7 +1630,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1813,7 +1647,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
